--- a/excel_file/vendedores_controle.xlsx
+++ b/excel_file/vendedores_controle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="DADOS(GERAL)" sheetId="1" state="visible" r:id="rId3"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="149">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -44,140 +44,447 @@
     <t xml:space="preserve">Plano</t>
   </si>
   <si>
-    <t xml:space="preserve">02/05/25</t>
-  </si>
-  <si>
     <t xml:space="preserve">CONTROLE 11GB </t>
   </si>
   <si>
-    <t xml:space="preserve">03/05/25</t>
+    <t xml:space="preserve">CONTROLE 9GB  C/REDES SOCIAIS</t>
   </si>
   <si>
     <t xml:space="preserve">CONTROLE 9GB </t>
   </si>
   <si>
-    <t xml:space="preserve">04/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLE 9GB  C/REDES SOCIAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/05/25</t>
+    <t xml:space="preserve">CONTROLE 15GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,988,119,315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,507,897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,675,129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,675,225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,792,182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,987,903,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75,999,570,168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,996,787</t>
   </si>
   <si>
     <t xml:space="preserve">CONTROLE 6GB promo</t>
   </si>
   <si>
+    <t xml:space="preserve">71,999,610,946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,984,815,995</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONTROLE 8GB PLN</t>
   </si>
   <si>
-    <t xml:space="preserve">10/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/05/25</t>
+    <t xml:space="preserve">71,996,540,152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,664,149</t>
   </si>
   <si>
     <t xml:space="preserve">CONTROLE 8GB </t>
   </si>
   <si>
-    <t xml:space="preserve">12/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/05/25</t>
+    <t xml:space="preserve">71,991,391,401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,111,504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,513,141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,415,801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,669,939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,866,681</t>
   </si>
   <si>
     <t xml:space="preserve">CONTROLE 13GB (DOTZ /TIDAL)</t>
   </si>
   <si>
-    <t xml:space="preserve">15/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/05/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLE 15GB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLE 9GB  C/REDES SOCIAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLE 9GB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLE 11GB </t>
+    <t xml:space="preserve">71,999,995,739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,855,388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,997,359,882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,986,846,981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,901,553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,517,808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,823,928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,771,231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,997,322,004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,997,213,925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,762,586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,833,989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,726,020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,103,862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,991,802,601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,988,252,352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,718,121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,674,477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,325,893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,569,984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,988,455,269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,662,037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,484,673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,997,114,445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,589,989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,991,381,318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,997,260,204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,997,348,786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,500,998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,223,307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,992,779,170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,571,105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,997,024,546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,983,190,776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,049,144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,863,267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75,992,480,056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,404,117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,984,835,792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,986,267,078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,996,432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,098,878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,991,060,096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,613,222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,788,221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,993,399,124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,724,663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,629,015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,902,590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,322,712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,004,672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,641,997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,987,073,521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,987,846,065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,961,510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,720,503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,337,675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,988,804,275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,987,703,477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,171,960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,986,989,962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,818,609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,997,330,423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,771,975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,997,433,766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,997,162,004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,845,656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,667,179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,199,644,966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,409,916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,988,847,985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75,999,603,670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,991,961,575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,982,462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,408,803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,545,066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,511,950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75,999,796,066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,368,402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,055,573</t>
   </si>
   <si>
     <t xml:space="preserve">CONTROLE ENTRETENIMENTO 17GB </t>
   </si>
   <si>
+    <t xml:space="preserve">75,998,222,092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,099,795</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONTROLE EDUCAÇÃO 13GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,684,809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73,999,754,237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45,991,246,271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,482,023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,470,607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,997,375,164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,091,973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,015,325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75,999,005,586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,744,305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,868,816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,178,983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,438,665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75,998,945,316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,115,540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,011,391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,311,265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,959,278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,045,570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,193,342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,959,797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,095,191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,997,430,365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,997,315,039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,312,807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,841,557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,761,979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,097,525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,997,221,949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,996,050,260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,997,203,909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,997,205,961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,999,135,530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,997,265,719</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -245,7 +552,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -276,6 +583,14 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1978,7 +2293,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2001,25 +2316,19 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>71988119315</v>
+      <c r="A2" s="8" t="n">
+        <v>45782</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>71999507897</v>
+      <c r="A3" s="8" t="n">
+        <v>45783</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -2029,67 +2338,52 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>71996675129</v>
+      <c r="A4" s="8" t="n">
+        <v>45783</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>71996675225</v>
+      <c r="A5" s="8" t="n">
+        <v>45783</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>71996792182</v>
+      <c r="A6" s="8" t="n">
+        <v>45787</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>71987903800</v>
+      <c r="A7" s="8" t="n">
+        <v>45787</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>75999570168</v>
+      <c r="A8" s="8" t="n">
+        <v>45787</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -2099,159 +2393,129 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>71999996787</v>
+      <c r="A9" s="8" t="n">
+        <v>45787</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>71999610946</v>
+      <c r="A10" s="8" t="n">
+        <v>45789</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="n">
+        <v>45789</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>71984815995</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
+      <c r="A12" s="8" t="n">
+        <v>45790</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
+      <c r="A13" s="8" t="n">
+        <v>45790</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>71996540152</v>
+      <c r="A14" s="8" t="n">
+        <v>45790</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>71996664149</v>
+      <c r="A15" s="8" t="n">
+        <v>45791</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>71991391401</v>
+      <c r="A16" s="8" t="n">
+        <v>45792</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="n">
+        <v>45793</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="n">
+        <v>45793</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="n">
+        <v>45795</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>71991391401</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>71996111504</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>71999513141</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D19" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>71999415801</v>
+      <c r="A20" s="8" t="n">
+        <v>45796</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>6</v>
@@ -2261,53 +2525,41 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>71996669939</v>
+      <c r="A21" s="8" t="n">
+        <v>45789</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>71996866681</v>
+      <c r="A22" s="8" t="n">
+        <v>45797</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>71999995739</v>
+      <c r="A23" s="8" t="n">
+        <v>45797</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>71999855388</v>
+      <c r="A24" s="8" t="n">
+        <v>45802</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>6</v>
@@ -2317,383 +2569,203 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>71997359882</v>
+      <c r="A25" s="8" t="n">
+        <v>45803</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>71986846981</v>
+      <c r="A26" s="8" t="n">
+        <v>45804</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>71996901553</v>
+      <c r="A27" s="8" t="n">
+        <v>45804</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="n">
+        <v>45805</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="n">
+        <v>45805</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="n">
+        <v>45806</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="n">
+        <v>45807</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="n">
+        <v>45807</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D32" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>24</v>
+      <c r="A33" s="8" t="n">
+        <v>45807</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>71999517808</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>71996823928</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>71999771231</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>71997322004</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>71997213925</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>71996762586</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>71999833989</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>71996726020</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="2" t="n">
-        <v>71999103862</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>71991802601</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>71988252352</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>71999718121</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>71999674477</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>71999325893</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>71999569984</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>71988455269</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="2" t="n">
-        <v>71999662037</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2714,8 +2786,8 @@
   </sheetPr>
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2738,695 +2810,695 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>71988119315</v>
+      <c r="A2" s="8" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>71999507897</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>71996675129</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>71996675225</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>71996792182</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>71987903800</v>
+      <c r="A7" s="8" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>75999570168</v>
+      <c r="A8" s="8" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="n">
+        <v>45787</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
+        <v>45787</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
+        <v>45787</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="n">
+        <v>45788</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="n">
+        <v>45793</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="n">
+        <v>45793</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="n">
+        <v>45794</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="n">
+        <v>45794</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>71999996787</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>71999610946</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>71984815995</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>71996540152</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>71996664149</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>71991391401</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="n">
+        <v>45794</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="n">
+        <v>45794</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>71991391401</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D33" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="n">
+        <v>45795</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="n">
+        <v>45795</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="n">
+        <v>45796</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="n">
+        <v>45798</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="n">
+        <v>45798</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="n">
+        <v>45798</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="n">
+        <v>45799</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>71996111504</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>71999513141</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>71999415801</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>71996669939</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>71996866681</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>71999995739</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>71999855388</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>71997359882</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>71986846981</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>71996901553</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="D45" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="D47" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D48" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>71999517808</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>71996823928</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>71999771231</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>71997322004</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>71997213925</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>71996762586</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>71999833989</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>71996726020</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="2" t="n">
-        <v>71999103862</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>71991802601</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>71988252352</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>71999718121</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>71999674477</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D49" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>71999325893</v>
+      <c r="A50" s="8" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>71999569984</v>
+      <c r="A51" s="8" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>71988455269</v>
+      <c r="A52" s="8" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="2" t="n">
-        <v>71999662037</v>
+      <c r="A53" s="8" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>2</v>
@@ -3449,10 +3521,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3472,82 +3544,93 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>71999484673</v>
+      <c r="A2" s="8" t="n">
+        <v>45799</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
+      <c r="A3" s="8" t="n">
+        <v>45800</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
+      <c r="A4" s="8" t="n">
+        <v>45802</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
+      <c r="A5" s="8" t="n">
+        <v>45802</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
+      <c r="A6" s="8" t="n">
+        <v>45803</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
+      <c r="A7" s="8" t="n">
+        <v>45803</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>33</v>
+      <c r="A8" s="8" t="n">
+        <v>45806</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>45808</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3568,10 +3651,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3591,437 +3674,459 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" s="8" t="n">
+        <v>45779</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" s="8" t="n">
+        <v>45779</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
+      <c r="A4" s="8" t="n">
+        <v>45780</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
+      <c r="A5" s="8" t="n">
+        <v>45781</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
+      <c r="A6" s="8" t="n">
+        <v>45781</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>35</v>
+      <c r="A7" s="8" t="n">
+        <v>45784</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
+      <c r="A8" s="8" t="n">
+        <v>45784</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
+      <c r="A9" s="8" t="n">
+        <v>45786</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
+      <c r="A10" s="8" t="n">
+        <v>45786</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
+      <c r="A11" s="8" t="n">
+        <v>45786</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
+      <c r="A12" s="8" t="n">
+        <v>45787</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
+      <c r="A13" s="8" t="n">
+        <v>45787</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
+      <c r="A14" s="8" t="n">
+        <v>45787</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
+      <c r="A15" s="8" t="n">
+        <v>45787</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
+      <c r="A16" s="8" t="n">
+        <v>45789</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>36</v>
+      <c r="A17" s="8" t="n">
+        <v>45790</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>36</v>
+      <c r="A18" s="8" t="n">
+        <v>45790</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
+      <c r="A19" s="8" t="n">
+        <v>45790</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>36</v>
+      <c r="A20" s="8" t="n">
+        <v>45790</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>71997114445</v>
+      <c r="A21" s="8" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>24</v>
+      <c r="A22" s="8" t="n">
+        <v>45794</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
+      <c r="A23" s="8" t="n">
+        <v>45796</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
+      <c r="A24" s="8" t="n">
+        <v>45798</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>27</v>
+      <c r="A25" s="8" t="n">
+        <v>45798</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
+      <c r="A26" s="8" t="n">
+        <v>45798</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
+      <c r="A27" s="8" t="n">
+        <v>45799</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>71996589989</v>
+      <c r="A28" s="8" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>37</v>
+      <c r="A29" s="8" t="n">
+        <v>45801</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
+      <c r="A30" s="8" t="n">
+        <v>45803</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
+      <c r="A31" s="8" t="n">
+        <v>45803</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
+      <c r="A32" s="8" t="n">
+        <v>45804</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
+      <c r="A33" s="8" t="n">
+        <v>45804</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>31</v>
+      <c r="A34" s="8" t="n">
+        <v>45804</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>31</v>
+      <c r="A35" s="8" t="n">
+        <v>45804</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>32</v>
+      <c r="A36" s="8" t="n">
+        <v>45805</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>32</v>
+      <c r="A37" s="8" t="n">
+        <v>45805</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>32</v>
+      <c r="A38" s="8" t="n">
+        <v>45805</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>32</v>
+      <c r="A39" s="8" t="n">
+        <v>45805</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>38</v>
+      <c r="A40" s="8" t="n">
+        <v>45807</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="n">
+        <v>45808</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="n">
+        <v>45801</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4042,10 +4147,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4065,476 +4170,498 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" s="8" t="n">
+        <v>45779</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="n">
+        <v>45779</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="n">
+        <v>45780</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="n">
+        <v>45780</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
+        <v>45781</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="n">
+        <v>45783</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
+        <v>45783</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="n">
+        <v>45784</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
+        <v>45784</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="n">
+        <v>45785</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="n">
+        <v>45785</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
+        <v>45785</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
+        <v>45785</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="n">
+        <v>45786</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
+        <v>45786</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="n">
+        <v>45786</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="n">
+        <v>45787</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="n">
+        <v>45787</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="n">
+        <v>45787</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="n">
+        <v>45788</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="n">
+        <v>45788</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="n">
+        <v>45793</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="n">
+        <v>45793</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="n">
+        <v>45794</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="n">
+        <v>45797</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="n">
+        <v>45797</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="n">
+        <v>45797</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="n">
+        <v>45799</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="n">
+        <v>45799</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="n">
+        <v>45801</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="n">
+        <v>45804</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="n">
+        <v>45805</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="n">
+        <v>45805</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>71991381318</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>71997260204</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>71997348786</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>71999500998</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D38" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>32</v>
+      <c r="A39" s="8" t="n">
+        <v>45805</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>33</v>
+      <c r="A40" s="8" t="n">
+        <v>45806</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>33</v>
+      <c r="A41" s="8" t="n">
+        <v>45806</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>33</v>
+      <c r="A42" s="8" t="n">
+        <v>45806</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>38</v>
+      <c r="A43" s="8" t="n">
+        <v>45807</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="n">
+        <v>45808</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="n">
+        <v>45808</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4555,10 +4682,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4578,419 +4705,489 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>71996223307</v>
+      <c r="A2" s="8" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>71992779170</v>
+      <c r="A3" s="8" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>71999571105</v>
+      <c r="A4" s="8" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>71997024546</v>
+      <c r="A5" s="8" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>71983190776</v>
+      <c r="A6" s="8" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>71999049144</v>
+      <c r="A7" s="8" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>71999863267</v>
+      <c r="A8" s="8" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>75992480056</v>
+      <c r="A9" s="8" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>71999404117</v>
+      <c r="A10" s="8" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>71984835792</v>
+      <c r="A11" s="8" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>71986267078</v>
+      <c r="A12" s="8" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>71999996432</v>
+      <c r="A13" s="8" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>71999098878</v>
+      <c r="A14" s="8" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>71991060096</v>
+      <c r="A15" s="8" t="n">
+        <v>45788</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>71999613222</v>
+      <c r="A16" s="8" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>36</v>
+      <c r="A17" s="8" t="n">
+        <v>45790</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>71996788221</v>
+      <c r="A18" s="8" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>71993399124</v>
+      <c r="A19" s="8" t="n">
+        <v>45794</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>71993399124</v>
+      <c r="A20" s="8" t="n">
+        <v>45794</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>71999724663</v>
+      <c r="A21" s="8" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>71996629015</v>
+      <c r="A22" s="8" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>71996902590</v>
+      <c r="A23" s="8" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>71999322712</v>
+      <c r="A24" s="8" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>71999004672</v>
+      <c r="A25" s="8" t="n">
+        <v>45798</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>71999641997</v>
+      <c r="A26" s="8" t="n">
+        <v>45798</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>71987073521</v>
+      <c r="A27" s="8" t="n">
+        <v>45799</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>71987846065</v>
+      <c r="A28" s="8" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>71996961510</v>
+      <c r="A29" s="8" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>71999720503</v>
+      <c r="A30" s="8" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>71996337675</v>
+      <c r="A31" s="8" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5011,16 +5208,16 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -5034,818 +5231,817 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>71997330423</v>
+      <c r="A2" s="8" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>71999771975</v>
+      <c r="A3" s="8" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>71997433766</v>
+      <c r="A4" s="8" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>71997162004</v>
+      <c r="A5" s="8" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>71999845656</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>71996667179</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>7199644966</v>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>71996409916</v>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>71988847985</v>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>75999603670</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>71991961575</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>71999982462</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>71999408803</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>71996545066</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>71996511950</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>75999796066</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>71999368402</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>71996055573</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>75998222092</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>71996099795</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>71999684809</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D17" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
+        <v>45787</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
+        <v>45787</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>73999754237</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>45991246271</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>71999482023</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>71996470607</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>71997375164</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="D20" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>71999091973</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="D23" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>71999015325</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>75999005586</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>71999744305</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>71996868816</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>71996178983</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>71999438665</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>75998945316</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>71999115540</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>71996011391</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>71996311265</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>71996959278</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>71996045570</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>71999193342</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>71999959797</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>71999095191</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="2" t="n">
-        <v>71997430365</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>71997315039</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>71999312807</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+      <c r="D26" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
+        <v>45794</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="2" t="n">
-        <v>71999841557</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>71999761979</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>71996097525</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>71997221949</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>71996050260</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="D31" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="n">
+        <v>45795</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="n">
+        <v>45795</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="n">
+        <v>45795</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="n">
+        <v>45796</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="n">
+        <v>45799</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="n">
+        <v>45799</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="n">
+        <v>45802</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="n">
+        <v>45802</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="n">
+        <v>45802</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="n">
+        <v>45802</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="2" t="n">
-        <v>71997203909</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="A53" s="9" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="A54" s="9" t="n">
+        <v>45807</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="A55" s="9" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="A56" s="9" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
